--- a/5/6/2/1/1/2 meses 2021 - Diaria.xlsx
+++ b/5/6/2/1/1/2 meses 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t>Serie</t>
   </si>
@@ -119,6 +119,66 @@
   </si>
   <si>
     <t>05-08-2021</t>
+  </si>
+  <si>
+    <t>06-08-2021</t>
+  </si>
+  <si>
+    <t>09-08-2021</t>
+  </si>
+  <si>
+    <t>10-08-2021</t>
+  </si>
+  <si>
+    <t>11-08-2021</t>
+  </si>
+  <si>
+    <t>12-08-2021</t>
+  </si>
+  <si>
+    <t>13-08-2021</t>
+  </si>
+  <si>
+    <t>16-08-2021</t>
+  </si>
+  <si>
+    <t>17-08-2021</t>
+  </si>
+  <si>
+    <t>18-08-2021</t>
+  </si>
+  <si>
+    <t>19-08-2021</t>
+  </si>
+  <si>
+    <t>20-08-2021</t>
+  </si>
+  <si>
+    <t>23-08-2021</t>
+  </si>
+  <si>
+    <t>24-08-2021</t>
+  </si>
+  <si>
+    <t>25-08-2021</t>
+  </si>
+  <si>
+    <t>26-08-2021</t>
+  </si>
+  <si>
+    <t>27-08-2021</t>
+  </si>
+  <si>
+    <t>01-09-2021</t>
+  </si>
+  <si>
+    <t>02-09-2021</t>
+  </si>
+  <si>
+    <t>03-09-2021</t>
+  </si>
+  <si>
+    <t>06-09-2021</t>
   </si>
 </sst>
 </file>
@@ -476,7 +536,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1137,6 +1197,418 @@
         <v>0.95</v>
       </c>
     </row>
+    <row r="30" spans="1:7">
+      <c r="A30" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30">
+        <v>200000</v>
+      </c>
+      <c r="C30">
+        <v>234000</v>
+      </c>
+      <c r="D30">
+        <v>100000</v>
+      </c>
+      <c r="E30">
+        <v>61000</v>
+      </c>
+      <c r="F30">
+        <v>39000</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31">
+        <v>200000</v>
+      </c>
+      <c r="C31">
+        <v>312000</v>
+      </c>
+      <c r="D31">
+        <v>200000</v>
+      </c>
+      <c r="E31">
+        <v>140000</v>
+      </c>
+      <c r="F31">
+        <v>60000</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32">
+        <v>200000</v>
+      </c>
+      <c r="C32">
+        <v>306000</v>
+      </c>
+      <c r="D32">
+        <v>200000</v>
+      </c>
+      <c r="E32">
+        <v>104000</v>
+      </c>
+      <c r="F32">
+        <v>96000</v>
+      </c>
+      <c r="G32">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33">
+        <v>200000</v>
+      </c>
+      <c r="C33">
+        <v>346000</v>
+      </c>
+      <c r="D33">
+        <v>100000</v>
+      </c>
+      <c r="E33">
+        <v>40000</v>
+      </c>
+      <c r="F33">
+        <v>60000</v>
+      </c>
+      <c r="G33">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34">
+        <v>200000</v>
+      </c>
+      <c r="C34">
+        <v>241000</v>
+      </c>
+      <c r="D34">
+        <v>100000</v>
+      </c>
+      <c r="E34">
+        <v>59000</v>
+      </c>
+      <c r="F34">
+        <v>41000</v>
+      </c>
+      <c r="G34">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" t="s">
+        <v>40</v>
+      </c>
+      <c r="B35">
+        <v>200000</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36">
+        <v>200000</v>
+      </c>
+      <c r="C36">
+        <v>450000</v>
+      </c>
+      <c r="D36">
+        <v>100000</v>
+      </c>
+      <c r="E36">
+        <v>47000</v>
+      </c>
+      <c r="F36">
+        <v>53000</v>
+      </c>
+      <c r="G36">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" t="s">
+        <v>42</v>
+      </c>
+      <c r="B37">
+        <v>200000</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38">
+        <v>200000</v>
+      </c>
+      <c r="C38">
+        <v>312000</v>
+      </c>
+      <c r="D38">
+        <v>100000</v>
+      </c>
+      <c r="E38">
+        <v>59000</v>
+      </c>
+      <c r="F38">
+        <v>41000</v>
+      </c>
+      <c r="G38">
+        <v>1.15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" t="s">
+        <v>44</v>
+      </c>
+      <c r="B39">
+        <v>200000</v>
+      </c>
+      <c r="C39">
+        <v>383000</v>
+      </c>
+      <c r="D39">
+        <v>100000</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>100000</v>
+      </c>
+      <c r="G39">
+        <v>1.14</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" t="s">
+        <v>45</v>
+      </c>
+      <c r="B40">
+        <v>200000</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" t="s">
+        <v>46</v>
+      </c>
+      <c r="B41">
+        <v>100000</v>
+      </c>
+      <c r="C41">
+        <v>258400</v>
+      </c>
+      <c r="D41">
+        <v>100000</v>
+      </c>
+      <c r="E41">
+        <v>21600</v>
+      </c>
+      <c r="F41">
+        <v>78400</v>
+      </c>
+      <c r="G41">
+        <v>1.14</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" t="s">
+        <v>47</v>
+      </c>
+      <c r="B42">
+        <v>100000</v>
+      </c>
+      <c r="C42">
+        <v>333000</v>
+      </c>
+      <c r="D42">
+        <v>50000</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>50000</v>
+      </c>
+      <c r="G42">
+        <v>1.13</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" t="s">
+        <v>48</v>
+      </c>
+      <c r="B43">
+        <v>100000</v>
+      </c>
+      <c r="C43">
+        <v>232000</v>
+      </c>
+      <c r="D43">
+        <v>50000</v>
+      </c>
+      <c r="E43">
+        <v>18000</v>
+      </c>
+      <c r="F43">
+        <v>32000</v>
+      </c>
+      <c r="G43">
+        <v>1.14</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" t="s">
+        <v>49</v>
+      </c>
+      <c r="B44">
+        <v>100000</v>
+      </c>
+      <c r="C44">
+        <v>236000</v>
+      </c>
+      <c r="D44">
+        <v>100000</v>
+      </c>
+      <c r="E44">
+        <v>14000</v>
+      </c>
+      <c r="F44">
+        <v>86000</v>
+      </c>
+      <c r="G44">
+        <v>1.16</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" t="s">
+        <v>50</v>
+      </c>
+      <c r="B45">
+        <v>100000</v>
+      </c>
+      <c r="C45">
+        <v>221000</v>
+      </c>
+      <c r="D45">
+        <v>100000</v>
+      </c>
+      <c r="E45">
+        <v>69000</v>
+      </c>
+      <c r="F45">
+        <v>31000</v>
+      </c>
+      <c r="G45">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" t="s">
+        <v>51</v>
+      </c>
+      <c r="B46">
+        <v>100000</v>
+      </c>
+      <c r="C46">
+        <v>222000</v>
+      </c>
+      <c r="D46">
+        <v>50000</v>
+      </c>
+      <c r="E46">
+        <v>38000</v>
+      </c>
+      <c r="F46">
+        <v>12000</v>
+      </c>
+      <c r="G46">
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" t="s">
+        <v>52</v>
+      </c>
+      <c r="B47">
+        <v>100000</v>
+      </c>
+      <c r="C47">
+        <v>206000</v>
+      </c>
+      <c r="D47">
+        <v>100000</v>
+      </c>
+      <c r="E47">
+        <v>94000</v>
+      </c>
+      <c r="F47">
+        <v>6000</v>
+      </c>
+      <c r="G47">
+        <v>1.85</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" t="s">
+        <v>53</v>
+      </c>
+      <c r="B48">
+        <v>100000</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" t="s">
+        <v>54</v>
+      </c>
+      <c r="B49">
+        <v>100000</v>
+      </c>
+      <c r="C49">
+        <v>268000</v>
+      </c>
+      <c r="D49">
+        <v>100000</v>
+      </c>
+      <c r="E49">
+        <v>92000</v>
+      </c>
+      <c r="F49">
+        <v>8000</v>
+      </c>
+      <c r="G49">
+        <v>1.8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/5/6/2/1/1/2 meses 2021 - Diaria.xlsx
+++ b/5/6/2/1/1/2 meses 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>Serie</t>
   </si>
@@ -179,6 +179,9 @@
   </si>
   <si>
     <t>06-09-2021</t>
+  </si>
+  <si>
+    <t>07-09-2021</t>
   </si>
 </sst>
 </file>
@@ -536,7 +539,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G49"/>
+  <dimension ref="A1:G50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1609,6 +1612,17 @@
         <v>1.8</v>
       </c>
     </row>
+    <row r="50" spans="1:7">
+      <c r="A50" t="s">
+        <v>55</v>
+      </c>
+      <c r="B50">
+        <v>100000</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/5/6/2/1/1/2 meses 2021 - Diaria.xlsx
+++ b/5/6/2/1/1/2 meses 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>Serie</t>
   </si>
@@ -182,6 +182,27 @@
   </si>
   <si>
     <t>07-09-2021</t>
+  </si>
+  <si>
+    <t>08-09-2021</t>
+  </si>
+  <si>
+    <t>09-09-2021</t>
+  </si>
+  <si>
+    <t>10-09-2021</t>
+  </si>
+  <si>
+    <t>13-09-2021</t>
+  </si>
+  <si>
+    <t>14-09-2021</t>
+  </si>
+  <si>
+    <t>15-09-2021</t>
+  </si>
+  <si>
+    <t>16-09-2021</t>
   </si>
 </sst>
 </file>
@@ -539,7 +560,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G50"/>
+  <dimension ref="A1:G57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1623,6 +1644,119 @@
         <v>0</v>
       </c>
     </row>
+    <row r="51" spans="1:7">
+      <c r="A51" t="s">
+        <v>56</v>
+      </c>
+      <c r="B51">
+        <v>100000</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" t="s">
+        <v>57</v>
+      </c>
+      <c r="B52">
+        <v>100000</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" t="s">
+        <v>58</v>
+      </c>
+      <c r="B53">
+        <v>100000</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" t="s">
+        <v>59</v>
+      </c>
+      <c r="B54">
+        <v>50000</v>
+      </c>
+      <c r="C54">
+        <v>165000</v>
+      </c>
+      <c r="D54">
+        <v>50000</v>
+      </c>
+      <c r="E54">
+        <v>50000</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" t="s">
+        <v>60</v>
+      </c>
+      <c r="B55">
+        <v>50000</v>
+      </c>
+      <c r="C55">
+        <v>100000</v>
+      </c>
+      <c r="D55">
+        <v>50000</v>
+      </c>
+      <c r="E55">
+        <v>50000</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <v>1.88</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" t="s">
+        <v>61</v>
+      </c>
+      <c r="B56">
+        <v>50000</v>
+      </c>
+      <c r="C56">
+        <v>125000</v>
+      </c>
+      <c r="D56">
+        <v>50000</v>
+      </c>
+      <c r="E56">
+        <v>45000</v>
+      </c>
+      <c r="F56">
+        <v>5000</v>
+      </c>
+      <c r="G56">
+        <v>1.88</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" t="s">
+        <v>62</v>
+      </c>
+      <c r="B57">
+        <v>50000</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/5/6/2/1/1/2 meses 2021 - Diaria.xlsx
+++ b/5/6/2/1/1/2 meses 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
   <si>
     <t>Serie</t>
   </si>
@@ -203,6 +203,36 @@
   </si>
   <si>
     <t>16-09-2021</t>
+  </si>
+  <si>
+    <t>20-09-2021</t>
+  </si>
+  <si>
+    <t>21-09-2021</t>
+  </si>
+  <si>
+    <t>22-09-2021</t>
+  </si>
+  <si>
+    <t>23-09-2021</t>
+  </si>
+  <si>
+    <t>24-09-2021</t>
+  </si>
+  <si>
+    <t>27-09-2021</t>
+  </si>
+  <si>
+    <t>28-09-2021</t>
+  </si>
+  <si>
+    <t>29-09-2021</t>
+  </si>
+  <si>
+    <t>30-09-2021</t>
+  </si>
+  <si>
+    <t>01-10-2021</t>
   </si>
 </sst>
 </file>
@@ -560,7 +590,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G57"/>
+  <dimension ref="A1:G67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1757,6 +1787,164 @@
         <v>0</v>
       </c>
     </row>
+    <row r="58" spans="1:7">
+      <c r="A58" t="s">
+        <v>63</v>
+      </c>
+      <c r="B58">
+        <v>50000</v>
+      </c>
+      <c r="C58">
+        <v>95000</v>
+      </c>
+      <c r="D58">
+        <v>50000</v>
+      </c>
+      <c r="E58">
+        <v>45000</v>
+      </c>
+      <c r="F58">
+        <v>5000</v>
+      </c>
+      <c r="G58">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" t="s">
+        <v>64</v>
+      </c>
+      <c r="B59">
+        <v>50000</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" t="s">
+        <v>65</v>
+      </c>
+      <c r="B60">
+        <v>50000</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" t="s">
+        <v>66</v>
+      </c>
+      <c r="B61">
+        <v>50000</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" t="s">
+        <v>67</v>
+      </c>
+      <c r="B62">
+        <v>50000</v>
+      </c>
+      <c r="C62">
+        <v>110000</v>
+      </c>
+      <c r="D62">
+        <v>25000</v>
+      </c>
+      <c r="E62">
+        <v>25000</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" t="s">
+        <v>68</v>
+      </c>
+      <c r="B63">
+        <v>50000</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" t="s">
+        <v>69</v>
+      </c>
+      <c r="B64">
+        <v>50000</v>
+      </c>
+      <c r="C64">
+        <v>100000</v>
+      </c>
+      <c r="D64">
+        <v>50000</v>
+      </c>
+      <c r="E64">
+        <v>40000</v>
+      </c>
+      <c r="F64">
+        <v>10000</v>
+      </c>
+      <c r="G64">
+        <v>2.18</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" t="s">
+        <v>70</v>
+      </c>
+      <c r="B65">
+        <v>50000</v>
+      </c>
+      <c r="C65">
+        <v>75000</v>
+      </c>
+      <c r="D65">
+        <v>50000</v>
+      </c>
+      <c r="E65">
+        <v>40000</v>
+      </c>
+      <c r="F65">
+        <v>10000</v>
+      </c>
+      <c r="G65">
+        <v>2.2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" t="s">
+        <v>71</v>
+      </c>
+      <c r="B66">
+        <v>50000</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" t="s">
+        <v>72</v>
+      </c>
+      <c r="B67">
+        <v>50000</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/5/6/2/1/1/2 meses 2021 - Diaria.xlsx
+++ b/5/6/2/1/1/2 meses 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
   <si>
     <t>Serie</t>
   </si>
@@ -233,6 +233,9 @@
   </si>
   <si>
     <t>01-10-2021</t>
+  </si>
+  <si>
+    <t>04-10-2021</t>
   </si>
 </sst>
 </file>
@@ -590,7 +593,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G67"/>
+  <dimension ref="A1:G68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1945,6 +1948,29 @@
         <v>0</v>
       </c>
     </row>
+    <row r="68" spans="1:7">
+      <c r="A68" t="s">
+        <v>73</v>
+      </c>
+      <c r="B68">
+        <v>50000</v>
+      </c>
+      <c r="C68">
+        <v>45000</v>
+      </c>
+      <c r="D68">
+        <v>45000</v>
+      </c>
+      <c r="E68">
+        <v>40000</v>
+      </c>
+      <c r="F68">
+        <v>5000</v>
+      </c>
+      <c r="G68">
+        <v>2.25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/5/6/2/1/1/2 meses 2021 - Diaria.xlsx
+++ b/5/6/2/1/1/2 meses 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
   <si>
     <t>Serie</t>
   </si>
@@ -236,6 +236,12 @@
   </si>
   <si>
     <t>04-10-2021</t>
+  </si>
+  <si>
+    <t>05-10-2021</t>
+  </si>
+  <si>
+    <t>06-10-2021</t>
   </si>
 </sst>
 </file>
@@ -593,7 +599,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G68"/>
+  <dimension ref="A1:G70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1971,6 +1977,28 @@
         <v>2.25</v>
       </c>
     </row>
+    <row r="69" spans="1:7">
+      <c r="A69" t="s">
+        <v>74</v>
+      </c>
+      <c r="B69">
+        <v>50000</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" t="s">
+        <v>75</v>
+      </c>
+      <c r="B70">
+        <v>50000</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/5/6/2/1/1/2 meses 2021 - Diaria.xlsx
+++ b/5/6/2/1/1/2 meses 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
   <si>
     <t>Serie</t>
   </si>
@@ -242,6 +242,12 @@
   </si>
   <si>
     <t>06-10-2021</t>
+  </si>
+  <si>
+    <t>14-10-2021</t>
+  </si>
+  <si>
+    <t>15-10-2021</t>
   </si>
 </sst>
 </file>
@@ -599,7 +605,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G70"/>
+  <dimension ref="A1:G72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1999,6 +2005,52 @@
         <v>0</v>
       </c>
     </row>
+    <row r="71" spans="1:7">
+      <c r="A71" t="s">
+        <v>76</v>
+      </c>
+      <c r="B71">
+        <v>100000</v>
+      </c>
+      <c r="C71">
+        <v>140000</v>
+      </c>
+      <c r="D71">
+        <v>50000</v>
+      </c>
+      <c r="E71">
+        <v>40000</v>
+      </c>
+      <c r="F71">
+        <v>10000</v>
+      </c>
+      <c r="G71">
+        <v>2.85</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" t="s">
+        <v>77</v>
+      </c>
+      <c r="B72">
+        <v>100000</v>
+      </c>
+      <c r="C72">
+        <v>202000</v>
+      </c>
+      <c r="D72">
+        <v>100000</v>
+      </c>
+      <c r="E72">
+        <v>100000</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72">
+        <v>2.84</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/5/6/2/1/1/2 meses 2021 - Diaria.xlsx
+++ b/5/6/2/1/1/2 meses 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
   <si>
     <t>Serie</t>
   </si>
@@ -248,6 +248,36 @@
   </si>
   <si>
     <t>15-10-2021</t>
+  </si>
+  <si>
+    <t>18-10-2021</t>
+  </si>
+  <si>
+    <t>19-10-2021</t>
+  </si>
+  <si>
+    <t>20-10-2021</t>
+  </si>
+  <si>
+    <t>21-10-2021</t>
+  </si>
+  <si>
+    <t>22-10-2021</t>
+  </si>
+  <si>
+    <t>25-10-2021</t>
+  </si>
+  <si>
+    <t>26-10-2021</t>
+  </si>
+  <si>
+    <t>27-10-2021</t>
+  </si>
+  <si>
+    <t>28-10-2021</t>
+  </si>
+  <si>
+    <t>29-10-2021</t>
   </si>
 </sst>
 </file>
@@ -605,7 +635,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G72"/>
+  <dimension ref="A1:G82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2051,6 +2081,236 @@
         <v>2.84</v>
       </c>
     </row>
+    <row r="73" spans="1:7">
+      <c r="A73" t="s">
+        <v>78</v>
+      </c>
+      <c r="B73">
+        <v>50000</v>
+      </c>
+      <c r="C73">
+        <v>90000</v>
+      </c>
+      <c r="D73">
+        <v>50000</v>
+      </c>
+      <c r="E73">
+        <v>40000</v>
+      </c>
+      <c r="F73">
+        <v>10000</v>
+      </c>
+      <c r="G73">
+        <v>2.84</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74" t="s">
+        <v>79</v>
+      </c>
+      <c r="B74">
+        <v>50000</v>
+      </c>
+      <c r="C74">
+        <v>125000</v>
+      </c>
+      <c r="D74">
+        <v>50000</v>
+      </c>
+      <c r="E74">
+        <v>40000</v>
+      </c>
+      <c r="F74">
+        <v>10000</v>
+      </c>
+      <c r="G74">
+        <v>2.82</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75" t="s">
+        <v>80</v>
+      </c>
+      <c r="B75">
+        <v>50000</v>
+      </c>
+      <c r="C75">
+        <v>222000</v>
+      </c>
+      <c r="D75">
+        <v>50000</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <v>50000</v>
+      </c>
+      <c r="G75">
+        <v>2.65</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76" t="s">
+        <v>81</v>
+      </c>
+      <c r="B76">
+        <v>50000</v>
+      </c>
+      <c r="C76">
+        <v>135000</v>
+      </c>
+      <c r="D76">
+        <v>50000</v>
+      </c>
+      <c r="E76">
+        <v>25000</v>
+      </c>
+      <c r="F76">
+        <v>25000</v>
+      </c>
+      <c r="G76">
+        <v>2.82</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77" t="s">
+        <v>82</v>
+      </c>
+      <c r="B77">
+        <v>50000</v>
+      </c>
+      <c r="C77">
+        <v>120000</v>
+      </c>
+      <c r="D77">
+        <v>50000</v>
+      </c>
+      <c r="E77">
+        <v>15000</v>
+      </c>
+      <c r="F77">
+        <v>35000</v>
+      </c>
+      <c r="G77">
+        <v>2.82</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78" t="s">
+        <v>83</v>
+      </c>
+      <c r="B78">
+        <v>50000</v>
+      </c>
+      <c r="C78">
+        <v>150000</v>
+      </c>
+      <c r="D78">
+        <v>50000</v>
+      </c>
+      <c r="E78">
+        <v>40000</v>
+      </c>
+      <c r="F78">
+        <v>10000</v>
+      </c>
+      <c r="G78">
+        <v>2.82</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79" t="s">
+        <v>84</v>
+      </c>
+      <c r="B79">
+        <v>50000</v>
+      </c>
+      <c r="C79">
+        <v>155000</v>
+      </c>
+      <c r="D79">
+        <v>50000</v>
+      </c>
+      <c r="E79">
+        <v>50000</v>
+      </c>
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80" t="s">
+        <v>85</v>
+      </c>
+      <c r="B80">
+        <v>50000</v>
+      </c>
+      <c r="C80">
+        <v>95000</v>
+      </c>
+      <c r="D80">
+        <v>50000</v>
+      </c>
+      <c r="E80">
+        <v>45000</v>
+      </c>
+      <c r="F80">
+        <v>5000</v>
+      </c>
+      <c r="G80">
+        <v>3.02</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="A81" t="s">
+        <v>86</v>
+      </c>
+      <c r="B81">
+        <v>50000</v>
+      </c>
+      <c r="C81">
+        <v>115000</v>
+      </c>
+      <c r="D81">
+        <v>50000</v>
+      </c>
+      <c r="E81">
+        <v>45000</v>
+      </c>
+      <c r="F81">
+        <v>5000</v>
+      </c>
+      <c r="G81">
+        <v>3.01</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82" t="s">
+        <v>87</v>
+      </c>
+      <c r="B82">
+        <v>50000</v>
+      </c>
+      <c r="C82">
+        <v>145000</v>
+      </c>
+      <c r="D82">
+        <v>50000</v>
+      </c>
+      <c r="E82">
+        <v>45000</v>
+      </c>
+      <c r="F82">
+        <v>5000</v>
+      </c>
+      <c r="G82">
+        <v>3.01</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/5/6/2/1/1/2 meses 2021 - Diaria.xlsx
+++ b/5/6/2/1/1/2 meses 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
   <si>
     <t>Serie</t>
   </si>
@@ -278,6 +278,12 @@
   </si>
   <si>
     <t>29-10-2021</t>
+  </si>
+  <si>
+    <t>02-11-2021</t>
+  </si>
+  <si>
+    <t>03-11-2021</t>
   </si>
 </sst>
 </file>
@@ -635,7 +641,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G82"/>
+  <dimension ref="A1:G84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2311,6 +2317,52 @@
         <v>3.01</v>
       </c>
     </row>
+    <row r="83" spans="1:7">
+      <c r="A83" t="s">
+        <v>88</v>
+      </c>
+      <c r="B83">
+        <v>50000</v>
+      </c>
+      <c r="C83">
+        <v>165000</v>
+      </c>
+      <c r="D83">
+        <v>50000</v>
+      </c>
+      <c r="E83">
+        <v>30000</v>
+      </c>
+      <c r="F83">
+        <v>20000</v>
+      </c>
+      <c r="G83">
+        <v>3.05</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="A84" t="s">
+        <v>89</v>
+      </c>
+      <c r="B84">
+        <v>50000</v>
+      </c>
+      <c r="C84">
+        <v>102000</v>
+      </c>
+      <c r="D84">
+        <v>50000</v>
+      </c>
+      <c r="E84">
+        <v>33000</v>
+      </c>
+      <c r="F84">
+        <v>17000</v>
+      </c>
+      <c r="G84">
+        <v>3.1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/5/6/2/1/1/2 meses 2021 - Diaria.xlsx
+++ b/5/6/2/1/1/2 meses 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
   <si>
     <t>Serie</t>
   </si>
@@ -284,6 +284,9 @@
   </si>
   <si>
     <t>03-11-2021</t>
+  </si>
+  <si>
+    <t>04-11-2021</t>
   </si>
 </sst>
 </file>
@@ -641,7 +644,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G84"/>
+  <dimension ref="A1:G85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2363,6 +2366,29 @@
         <v>3.1</v>
       </c>
     </row>
+    <row r="85" spans="1:7">
+      <c r="A85" t="s">
+        <v>90</v>
+      </c>
+      <c r="B85">
+        <v>50000</v>
+      </c>
+      <c r="C85">
+        <v>175000</v>
+      </c>
+      <c r="D85">
+        <v>50000</v>
+      </c>
+      <c r="E85">
+        <v>10000</v>
+      </c>
+      <c r="F85">
+        <v>40000</v>
+      </c>
+      <c r="G85">
+        <v>3.18</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/5/6/2/1/1/2 meses 2021 - Diaria.xlsx
+++ b/5/6/2/1/1/2 meses 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
   <si>
     <t>Serie</t>
   </si>
@@ -287,6 +287,9 @@
   </si>
   <si>
     <t>04-11-2021</t>
+  </si>
+  <si>
+    <t>05-11-2021</t>
   </si>
 </sst>
 </file>
@@ -644,7 +647,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G85"/>
+  <dimension ref="A1:G86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2389,6 +2392,29 @@
         <v>3.18</v>
       </c>
     </row>
+    <row r="86" spans="1:7">
+      <c r="A86" t="s">
+        <v>91</v>
+      </c>
+      <c r="B86">
+        <v>50000</v>
+      </c>
+      <c r="C86">
+        <v>170000</v>
+      </c>
+      <c r="D86">
+        <v>50000</v>
+      </c>
+      <c r="E86">
+        <v>15000</v>
+      </c>
+      <c r="F86">
+        <v>35000</v>
+      </c>
+      <c r="G86">
+        <v>3.19</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/5/6/2/1/1/2 meses 2021 - Diaria.xlsx
+++ b/5/6/2/1/1/2 meses 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="93">
   <si>
     <t>Serie</t>
   </si>
@@ -290,6 +290,9 @@
   </si>
   <si>
     <t>05-11-2021</t>
+  </si>
+  <si>
+    <t>08-11-2021</t>
   </si>
 </sst>
 </file>
@@ -647,7 +650,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G86"/>
+  <dimension ref="A1:G87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2415,6 +2418,17 @@
         <v>3.19</v>
       </c>
     </row>
+    <row r="87" spans="1:7">
+      <c r="A87" t="s">
+        <v>92</v>
+      </c>
+      <c r="B87">
+        <v>50000</v>
+      </c>
+      <c r="D87">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/5/6/2/1/1/2 meses 2021 - Diaria.xlsx
+++ b/5/6/2/1/1/2 meses 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
   <si>
     <t>Serie</t>
   </si>
@@ -293,6 +293,9 @@
   </si>
   <si>
     <t>08-11-2021</t>
+  </si>
+  <si>
+    <t>09-11-2021</t>
   </si>
 </sst>
 </file>
@@ -650,7 +653,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G87"/>
+  <dimension ref="A1:G88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2429,6 +2432,29 @@
         <v>0</v>
       </c>
     </row>
+    <row r="88" spans="1:7">
+      <c r="A88" t="s">
+        <v>93</v>
+      </c>
+      <c r="B88">
+        <v>50000</v>
+      </c>
+      <c r="C88">
+        <v>95000</v>
+      </c>
+      <c r="D88">
+        <v>50000</v>
+      </c>
+      <c r="E88">
+        <v>40000</v>
+      </c>
+      <c r="F88">
+        <v>10000</v>
+      </c>
+      <c r="G88">
+        <v>3.23</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
